--- a/ملفات الاكسل لمشروع التخرج/‏‏plans_subjects_one-هندسة حاسوب.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/‏‏plans_subjects_one-هندسة حاسوب.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FFD3F7-6736-4594-B64B-FA82AC11351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA0112E-7E82-4070-A1F8-06F39315FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>plan_subject_id</t>
   </si>
@@ -42,12 +42,6 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">سنة أولى </t>
   </si>
   <si>
@@ -66,27 +60,9 @@
     <t>First</t>
   </si>
   <si>
-    <t>إلكترونيات I</t>
-  </si>
-  <si>
-    <t>دوائر كهربائية II</t>
-  </si>
-  <si>
-    <t>مختبر دوائر كهربائية</t>
-  </si>
-  <si>
-    <t>معالجة الإشارات الرقمية</t>
-  </si>
-  <si>
     <t>مقدمة في مشروع التخرج</t>
   </si>
   <si>
-    <t>أساسيات المنطق الرقمي</t>
-  </si>
-  <si>
-    <t>مقدمة في المعالجات الدقيقة</t>
-  </si>
-  <si>
     <t>فيزياء عامة I</t>
   </si>
   <si>
@@ -111,12 +87,6 @@
     <t>مقدمة في الهندسة</t>
   </si>
   <si>
-    <t>برمجة الحاسوب</t>
-  </si>
-  <si>
-    <t>المشغل الهندسي والأمن الصناعي</t>
-  </si>
-  <si>
     <t>تفاضل وتكامل II</t>
   </si>
   <si>
@@ -138,90 +108,27 @@
     <t>تفاضل وتكامل III</t>
   </si>
   <si>
-    <t>دوائر كهربائية I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الخوارزميات وتركيب البيانات  </t>
-  </si>
-  <si>
     <t xml:space="preserve">التكنولوجيا والمجتمع </t>
   </si>
   <si>
     <t>الجبر الخطي</t>
   </si>
   <si>
-    <t>لغات برمجة</t>
-  </si>
-  <si>
-    <t>إلكترونيات II</t>
-  </si>
-  <si>
-    <t>مختبر إلكترونيات</t>
-  </si>
-  <si>
     <t>قضية فلسطين</t>
   </si>
   <si>
     <t>معادلات تفاضلية</t>
   </si>
   <si>
-    <t>البرمجة الشيئية الموجهة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإشارات وتواصل البيانات </t>
-  </si>
-  <si>
-    <t>برمجة مرئية</t>
-  </si>
-  <si>
     <t>نظرية الإحتمالات والإحصاء</t>
   </si>
   <si>
-    <t>نظم التشغيل</t>
-  </si>
-  <si>
-    <t>هندسة البرمجيات</t>
-  </si>
-  <si>
-    <t>نظم قواعد البيانات</t>
-  </si>
-  <si>
-    <t>تصميم الأنظمة الرقمية</t>
-  </si>
-  <si>
-    <t>معمارية الحاسوب</t>
-  </si>
-  <si>
     <t>التحليل العددي</t>
   </si>
   <si>
-    <t xml:space="preserve">أنظمة التحكم الخطية </t>
-  </si>
-  <si>
-    <t>برمجة إنترنت وتطبيقاته I</t>
-  </si>
-  <si>
-    <t>قواعد البيانات المتقدمة</t>
-  </si>
-  <si>
     <t>أساليب البحث العلمي</t>
   </si>
   <si>
-    <t>برمجة النظم</t>
-  </si>
-  <si>
-    <t>تقنيات الربط بالحاسوب</t>
-  </si>
-  <si>
-    <t>أنظمة الاتصالات</t>
-  </si>
-  <si>
-    <t>برمجة إنترنت وتطبيقاته II</t>
-  </si>
-  <si>
-    <t>شبكات الحاسوب</t>
-  </si>
-  <si>
     <t>مادة إختيارية 1</t>
   </si>
   <si>
@@ -234,9 +141,6 @@
     <t>قضايا فقهيه معاصرة</t>
   </si>
   <si>
-    <t>مشروع التخرج</t>
-  </si>
-  <si>
     <t>مادة إختيارية 4</t>
   </si>
   <si>
@@ -246,7 +150,184 @@
     <t>CSE</t>
   </si>
   <si>
-    <t>هندسة أنظمة حاسوب</t>
+    <t>مقدمة في الحاسوب - نظري</t>
+  </si>
+  <si>
+    <t>مقدمة في الحاسوب - عملي</t>
+  </si>
+  <si>
+    <t>رسم هندسي - نظري</t>
+  </si>
+  <si>
+    <t>رسم هندسي - عملي</t>
+  </si>
+  <si>
+    <t>برمجة الحاسوب - نظري</t>
+  </si>
+  <si>
+    <t>برمجة الحاسوب - عملي</t>
+  </si>
+  <si>
+    <t>المشغل الهندسي والأمن الصناعي - نظري</t>
+  </si>
+  <si>
+    <t>المشغل الهندسي والأمن الصناعي - عملي</t>
+  </si>
+  <si>
+    <t>دوائر كهربائية I - نظري</t>
+  </si>
+  <si>
+    <t>دوائر كهربائية I - عملي</t>
+  </si>
+  <si>
+    <t>إلكترونيات I - نظري</t>
+  </si>
+  <si>
+    <t>إلكترونيات I - عملي</t>
+  </si>
+  <si>
+    <t>الخوارزميات وتركيب البيانات - نظري</t>
+  </si>
+  <si>
+    <t>الخوارزميات وتركيب البيانات  - عملي</t>
+  </si>
+  <si>
+    <t>لغات برمجة - نظري</t>
+  </si>
+  <si>
+    <t>لغات برمجة - عملي</t>
+  </si>
+  <si>
+    <t>دوائر كهربائية II - نظري</t>
+  </si>
+  <si>
+    <t>دوائر كهربائية II - عملي</t>
+  </si>
+  <si>
+    <t>إلكترونيات II - نظري</t>
+  </si>
+  <si>
+    <t>إلكترونيات II - عملي</t>
+  </si>
+  <si>
+    <t>أساسيات المنطق الرقمي - نظري</t>
+  </si>
+  <si>
+    <t>أساسيات المنطق الرقمي - عملي</t>
+  </si>
+  <si>
+    <t>البرمجة الشيئية الموجهة - نظري</t>
+  </si>
+  <si>
+    <t>البرمجة الشيئية الموجهة - عملي</t>
+  </si>
+  <si>
+    <t>الإشارات وتواصل البيانات - نظري</t>
+  </si>
+  <si>
+    <t>الإشارات وتواصل البيانات - عملي</t>
+  </si>
+  <si>
+    <t>برمجة مرئية - نظري</t>
+  </si>
+  <si>
+    <t>برمجة مرئية - عملي</t>
+  </si>
+  <si>
+    <t>نظم التشغيل - نظري</t>
+  </si>
+  <si>
+    <t>نظم التشغيل - عملي</t>
+  </si>
+  <si>
+    <t>هندسة البرمجيات - نظري</t>
+  </si>
+  <si>
+    <t>هندسة البرمجيات - عملي</t>
+  </si>
+  <si>
+    <t>نظم قواعد البيانات - نظري</t>
+  </si>
+  <si>
+    <t>نظم قواعد البيانات - عملي</t>
+  </si>
+  <si>
+    <t>تصميم الأنظمة الرقمية - نظري</t>
+  </si>
+  <si>
+    <t>تصميم الأنظمة الرقمية - عملي</t>
+  </si>
+  <si>
+    <t>معمارية الحاسوب - نظري</t>
+  </si>
+  <si>
+    <t>معمارية الحاسوب - عملي</t>
+  </si>
+  <si>
+    <t>أنظمة التحكم الخطية - نظري</t>
+  </si>
+  <si>
+    <t>أنظمة التحكم الخطية - عملي</t>
+  </si>
+  <si>
+    <t>برمجة إنترنت وتطبيقاته I - نظري</t>
+  </si>
+  <si>
+    <t>برمجة إنترنت وتطبيقاته I - عملي</t>
+  </si>
+  <si>
+    <t>مقدمة في المعالجات الدقيقة - نظري</t>
+  </si>
+  <si>
+    <t>مقدمة في المعالجات الدقيقة - عملي</t>
+  </si>
+  <si>
+    <t>قواعد البيانات المتقدمة - نظري</t>
+  </si>
+  <si>
+    <t>قواعد البيانات المتقدمة - عملي</t>
+  </si>
+  <si>
+    <t>برمجة النظم - نظري</t>
+  </si>
+  <si>
+    <t>برمجة النظم - عملي</t>
+  </si>
+  <si>
+    <t>تقنيات الربط بالحاسوب - نظري</t>
+  </si>
+  <si>
+    <t>تقنيات الربط بالحاسوب - عملي</t>
+  </si>
+  <si>
+    <t>أنظمة الاتصالات - نظري</t>
+  </si>
+  <si>
+    <t>أنظمة الاتصالات - عملي</t>
+  </si>
+  <si>
+    <t>برمجة إنترنت وتطبيقاته II - نظري</t>
+  </si>
+  <si>
+    <t>برمجة إنترنت وتطبيقاته II - عملي</t>
+  </si>
+  <si>
+    <t>شبكات الحاسوب - نظري</t>
+  </si>
+  <si>
+    <t>شبكات الحاسوب - عملي</t>
+  </si>
+  <si>
+    <t>معالجة الإشارات الرقمية - نظري</t>
+  </si>
+  <si>
+    <t>معالجة الإشارات الرقمية - عملي</t>
+  </si>
+  <si>
+    <t>مشروع التخرج - نظري</t>
+  </si>
+  <si>
+    <t>مشروع التخرج - عملي</t>
   </si>
 </sst>
 </file>
@@ -268,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,12 +359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,10 +375,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -587,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,16 +700,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -643,16 +717,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -660,16 +734,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -677,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -685,8 +759,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
+      <c r="E5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,143 +768,148 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>9001</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9902</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -838,16 +917,16 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
+      <c r="E15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -855,297 +934,314 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>45</v>
+      <c r="E33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>7</v>
+      <c r="B35" t="s">
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>7</v>
+      <c r="B36" t="s">
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1153,67 +1249,84 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38">
-        <v>7</v>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40">
-        <v>7</v>
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>49</v>
+      <c r="E40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>7</v>
+      <c r="B41" t="s">
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>50</v>
+      <c r="E41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1221,982 +1334,900 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>52</v>
+      <c r="E42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>55</v>
+      <c r="E47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>56</v>
+      <c r="E48" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>57</v>
+      <c r="E49" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>19</v>
+      <c r="E50" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>58</v>
+      <c r="E51" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>59</v>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>60</v>
+      <c r="E55" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>61</v>
+      <c r="E56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>62</v>
+      <c r="E57" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>63</v>
+      <c r="E58" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
         <v>72</v>
       </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>64</v>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
-      </c>
-      <c r="B61">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
-      </c>
-      <c r="B62">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>60</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>61</v>
-      </c>
-      <c r="B64">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>62</v>
-      </c>
-      <c r="B65">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>63</v>
-      </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>65</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>66</v>
-      </c>
-      <c r="B69">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>67</v>
-      </c>
-      <c r="B70">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>68</v>
-      </c>
-      <c r="B71">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>70</v>
-      </c>
-      <c r="B73">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>71</v>
-      </c>
-      <c r="B74">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>72</v>
-      </c>
-      <c r="B75">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>73</v>
-      </c>
-      <c r="B76">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>74</v>
-      </c>
-      <c r="B77">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>75</v>
-      </c>
-      <c r="B78">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>76</v>
-      </c>
-      <c r="B79">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>77</v>
-      </c>
-      <c r="B80">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>78</v>
-      </c>
-      <c r="B81">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>79</v>
-      </c>
-      <c r="B82">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>81</v>
-      </c>
-      <c r="B84">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>82</v>
-      </c>
-      <c r="B85">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>83</v>
-      </c>
-      <c r="B86">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>84</v>
-      </c>
-      <c r="B87">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>85</v>
-      </c>
-      <c r="B88">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>86</v>
-      </c>
-      <c r="B89">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89">
-        <v>86</v>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>87</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90">
         <v>5</v>
       </c>
-      <c r="D90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90">
-        <v>87</v>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>88</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91">
         <v>5</v>
       </c>
-      <c r="D91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91">
-        <v>88</v>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>89</v>
-      </c>
-      <c r="B92">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92">
         <v>5</v>
       </c>
-      <c r="D92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92">
-        <v>89</v>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90</v>
-      </c>
-      <c r="B93">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93">
         <v>5</v>
       </c>
-      <c r="D93" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93">
-        <v>90</v>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>91</v>
-      </c>
-      <c r="B94">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94">
         <v>5</v>
       </c>
-      <c r="D94" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="A96">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>191</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>191</v>
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>192</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>193</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>193</v>
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>194</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>195</v>
-      </c>
-      <c r="B101">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>196</v>
-      </c>
-      <c r="B102">
-        <v>4</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>197</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>198</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>199</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>199</v>
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
